--- a/backend/team_data.xlsx
+++ b/backend/team_data.xlsx
@@ -6,6 +6,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="4-a-side-baddy" sheetId="2" r:id="rId2"/>
     <sheet name="Gully Cricket" sheetId="3" r:id="rId3"/>
+    <sheet name="Tug of war" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -413,7 +414,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -618,16 +619,54 @@
         <v>554</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>4-a-side-baddy</v>
+      </c>
+      <c r="B8" t="str">
+        <v>a</v>
+      </c>
+      <c r="C8" t="str">
+        <v>v</v>
+      </c>
+      <c r="D8" t="str">
+        <v>e</v>
+      </c>
+      <c r="E8" t="str">
+        <v>qw</v>
+      </c>
+      <c r="F8" t="str">
+        <v>csd</v>
+      </c>
+      <c r="G8" t="str">
+        <v>sdc</v>
+      </c>
+      <c r="H8" t="str">
+        <v>sd</v>
+      </c>
+      <c r="I8" t="str">
+        <v>e</v>
+      </c>
+      <c r="J8" t="str">
+        <v>e</v>
+      </c>
+      <c r="K8" t="str">
+        <v>r</v>
+      </c>
+      <c r="L8" t="str">
+        <v>r</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L8"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -782,9 +821,173 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Gully Cricket</v>
+      </c>
+      <c r="B4" t="str">
+        <v>asd</v>
+      </c>
+      <c r="C4" t="str">
+        <v>c</v>
+      </c>
+      <c r="D4" t="str">
+        <v>j</v>
+      </c>
+      <c r="E4" t="str">
+        <v>j</v>
+      </c>
+      <c r="F4" t="str">
+        <v>j</v>
+      </c>
+      <c r="G4" t="str">
+        <v>j</v>
+      </c>
+      <c r="H4" t="str">
+        <v>j</v>
+      </c>
+      <c r="I4" t="str">
+        <v>j</v>
+      </c>
+      <c r="J4" t="str">
+        <v>j</v>
+      </c>
+      <c r="K4" t="str">
+        <v>j</v>
+      </c>
+      <c r="L4" t="str">
+        <v>j</v>
+      </c>
+      <c r="M4" t="str">
+        <v>j</v>
+      </c>
+      <c r="N4" t="str">
+        <v>j</v>
+      </c>
+      <c r="O4" t="str">
+        <v>j</v>
+      </c>
+      <c r="P4" t="str">
+        <v>j</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Sport</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Team Name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Captain Name</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Captain Roll No.</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Captain Email</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Captain Contact</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Member 1 Name</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Member 1 Roll No.</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Member 2 Name</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Member 2 Roll No.</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Member 3 Name</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Member 3 Roll No.</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Member 4 Name</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Member 4 Roll No.</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Member 5 Name</v>
+      </c>
+      <c r="P1" t="str">
+        <v>Member 5 Roll No.</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Tug of war</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Tug</v>
+      </c>
+      <c r="C2" t="str">
+        <v>KD</v>
+      </c>
+      <c r="D2" t="str">
+        <v>22110112</v>
+      </c>
+      <c r="E2" t="str">
+        <v>kd@gmail.com</v>
+      </c>
+      <c r="F2" t="str">
+        <v>9916768618</v>
+      </c>
+      <c r="G2" t="str">
+        <v>2Name</v>
+      </c>
+      <c r="H2" t="str">
+        <v>222</v>
+      </c>
+      <c r="I2" t="str">
+        <v>3Name</v>
+      </c>
+      <c r="J2" t="str">
+        <v>333</v>
+      </c>
+      <c r="K2" t="str">
+        <v>4name</v>
+      </c>
+      <c r="L2" t="str">
+        <v>444</v>
+      </c>
+      <c r="M2" t="str">
+        <v>5name</v>
+      </c>
+      <c r="N2" t="str">
+        <v>555</v>
+      </c>
+      <c r="O2" t="str">
+        <v>6name</v>
+      </c>
+      <c r="P2" t="str">
+        <v>666</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:P2"/>
   </ignoredErrors>
 </worksheet>
 </file>